--- a/졸업작품기획/기획 일정.xlsx
+++ b/졸업작품기획/기획 일정.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="담당별 일정" sheetId="1" r:id="rId1"/>
@@ -601,10 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>산출물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임의 맵 구조 완성
 메인캐릭터 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -632,6 +628,10 @@
   <si>
     <t>베타버전
 (2인플레이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상산출물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1105,152 +1105,152 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1581,393 +1581,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.5" style="1" customWidth="1"/>
-    <col min="12" max="16" width="8.796875" style="1"/>
-    <col min="17" max="17" width="8.796875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.5" style="1" customWidth="1"/>
+    <col min="13" max="17" width="8.75" style="1"/>
+    <col min="18" max="18" width="8.75" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="10" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="40"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="40"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="40"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="40"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="40"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="40"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="40"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="22" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
+    </row>
+    <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:11" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="19" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="2:12" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="48" t="s">
+      <c r="G14" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="H14" s="33"/>
+      <c r="I14" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="48" t="s">
+      <c r="J14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="36" t="s">
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="44" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="40"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="40"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="39"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="40"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="39"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="39"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="40"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="39"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="40"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="39"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="40"/>
-    </row>
-    <row r="25" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="44"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="44"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="44"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="44"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="44"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="44"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="44"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
+    </row>
+    <row r="25" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="45"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J2:K12"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A17:K25"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K3:L13"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1983,135 +1986,135 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="27.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.796875" style="1"/>
-    <col min="6" max="6" width="17.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="27.796875" style="1"/>
+    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="1"/>
+    <col min="6" max="6" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="27.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="2:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B4" s="32"/>
-      <c r="C4" s="25" t="s">
+    <row r="4" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="47"/>
+      <c r="C4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B5" s="33"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
+    <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="48"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="31" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="2:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="B7" s="32"/>
-      <c r="C7" s="26" t="s">
+    <row r="7" spans="2:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="47"/>
+      <c r="C7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="2:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29" t="s">
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="47"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B9" s="32"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26" t="s">
+    <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="47"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="2:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="30" t="s">
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="48"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2130,7 +2133,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
